--- a/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Eingesetzte Anreize" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="vermiedene Anreize" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
@@ -16,12 +16,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>matteriell</t>
   </si>
   <si>
     <t>immateriell</t>
+  </si>
+  <si>
+    <t>Coaching</t>
+  </si>
+  <si>
+    <t>Mentoring</t>
+  </si>
+  <si>
+    <t>Auslandeinsatz</t>
+  </si>
+  <si>
+    <t>Newsletter</t>
+  </si>
+  <si>
+    <t>Thank you notes</t>
+  </si>
+  <si>
+    <t>Weiterbildung</t>
+  </si>
+  <si>
+    <t>Ruheräume</t>
+  </si>
+  <si>
+    <t>Kinderbetreuung</t>
+  </si>
+  <si>
+    <t>flexible Arbeitszeit</t>
+  </si>
+  <si>
+    <t>Reisen</t>
+  </si>
+  <si>
+    <t>Sabbatical</t>
+  </si>
+  <si>
+    <t>negativ</t>
+  </si>
+  <si>
+    <t>positiv</t>
   </si>
 </sst>
 </file>
@@ -130,6 +169,266 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>negativ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'vermiedene Anreize'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positiv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'vermiedene Anreize'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:shape val="box"/>
+        <c:axId val="81742848"/>
+        <c:axId val="81777408"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="81742848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81777408"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="81777408"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="81742848"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -144,6 +443,41 @@
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>200024</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -452,7 +786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
@@ -485,13 +819,149 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>13</v>
+      </c>
+      <c r="C4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" t="s">
+        <v>7</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Eingesetzte Anreize" sheetId="1" r:id="rId1"/>
@@ -112,6 +112,9 @@
   <c:lang val="en-US"/>
   <c:style val="6"/>
   <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -153,10 +156,13 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -786,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -821,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Eingesetzte Anreize" sheetId="1" r:id="rId1"/>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Firmengrösse" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
     <t>matteriell</t>
   </si>
@@ -61,6 +61,39 @@
   </si>
   <si>
     <t>positiv</t>
+  </si>
+  <si>
+    <t>Auslandeinsätze</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newsletter </t>
+  </si>
+  <si>
+    <t>Persönliche Weiterbildung</t>
+  </si>
+  <si>
+    <t>Flexible Arbeitszeiten</t>
+  </si>
+  <si>
+    <t>&gt;= 2000</t>
+  </si>
+  <si>
+    <t>&lt; 2000</t>
+  </si>
+  <si>
+    <t>&lt; 250</t>
+  </si>
+  <si>
+    <t>&lt; 50</t>
+  </si>
+  <si>
+    <t>&lt; 10</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> = 100%</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -76,15 +109,27 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF8F8FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -92,12 +137,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -126,6 +191,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'Eingesetzte Anreize'!$A$2:$A$3</c:f>
@@ -169,7 +237,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -386,28 +454,27 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="box"/>
-        <c:axId val="81742848"/>
-        <c:axId val="81777408"/>
+        <c:axId val="77612160"/>
+        <c:axId val="77613696"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="81742848"/>
+        <c:axId val="77612160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81777408"/>
+        <c:crossAx val="77613696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="81777408"/>
+        <c:axId val="77613696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -416,7 +483,561 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="81742848"/>
+        <c:crossAx val="77612160"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt;= 2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 250</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls/>
+        <c:shape val="box"/>
+        <c:axId val="71270400"/>
+        <c:axId val="71271936"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="71270400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71271936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="71271936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="71270400"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -488,6 +1109,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>104775</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -792,7 +1448,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
@@ -973,12 +1629,270 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="41.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="B1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="E6">
+        <v>3</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" s="2">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7" s="2">
+        <v>2</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3">
+        <v>4</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" s="3">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11" s="3">
+        <v>1</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
+      </c>
+      <c r="F12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="B15" s="2"/>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3">
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Eingesetzte Anreize" sheetId="1" r:id="rId1"/>
@@ -18,9 +18,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
   <si>
-    <t>matteriell</t>
-  </si>
-  <si>
     <t>immateriell</t>
   </si>
   <si>
@@ -94,6 +91,9 @@
   </si>
   <si>
     <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>materiell</t>
   </si>
 </sst>
 </file>
@@ -174,11 +174,21 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:view3D>
       <c:rotX val="30"/>
@@ -192,6 +202,16 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
+            <c:txPr>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr lang="en-US"/>
+                </a:pPr>
+                <a:endParaRPr lang="de-DE"/>
+              </a:p>
+            </c:txPr>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -203,7 +223,7 @@
                   <c:v>immateriell</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>matteriell</c:v>
+                  <c:v>materiell</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -232,12 +252,22 @@
     <c:legend>
       <c:legendPos val="t"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -245,10 +275,20 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -455,26 +495,36 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="77612160"/>
-        <c:axId val="77613696"/>
+        <c:axId val="64938368"/>
+        <c:axId val="64939904"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="77612160"/>
+        <c:axId val="64938368"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77613696"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64939904"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="77613696"/>
+        <c:axId val="64939904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -483,7 +533,17 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="77612160"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64938368"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -491,12 +551,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -504,10 +574,20 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
+  <c:lang val="de-CH"/>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:title>
     <c:view3D>
       <c:rAngAx val="1"/>
@@ -1007,28 +1087,37 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:dLbls/>
         <c:shape val="box"/>
-        <c:axId val="71270400"/>
-        <c:axId val="71271936"/>
+        <c:axId val="65006976"/>
+        <c:axId val="65025152"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="71270400"/>
+        <c:axId val="65006976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71271936"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65025152"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="71271936"/>
+        <c:axId val="65025152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1037,7 +1126,17 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="71270400"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="de-DE"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="65006976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1045,12 +1144,22 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="de-DE"/>
+        </a:p>
+      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1448,8 +1557,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1459,7 +1568,7 @@
   <sheetData>
     <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>14</v>
@@ -1467,7 +1576,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>3</v>
@@ -1494,15 +1603,15 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
         <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>11</v>
@@ -1513,7 +1622,7 @@
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>8</v>
@@ -1524,7 +1633,7 @@
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4">
         <v>13</v>
@@ -1535,7 +1644,7 @@
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
         <v>10</v>
@@ -1546,7 +1655,7 @@
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>11</v>
@@ -1557,7 +1666,7 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>2</v>
@@ -1568,7 +1677,7 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>13</v>
@@ -1579,7 +1688,7 @@
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>14</v>
@@ -1590,7 +1699,7 @@
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
         <v>4</v>
@@ -1601,7 +1710,7 @@
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>9</v>
@@ -1612,7 +1721,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>12</v>
@@ -1631,7 +1740,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
@@ -1642,24 +1751,24 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
         <v>19</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>20</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>21</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>22</v>
-      </c>
-      <c r="F1" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1679,7 +1788,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -1699,7 +1808,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>1</v>
@@ -1719,7 +1828,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>1</v>
@@ -1739,7 +1848,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
         <v>1</v>
@@ -1759,7 +1868,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B7" s="2">
         <v>2</v>
@@ -1779,7 +1888,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1799,7 +1908,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -1819,7 +1928,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
@@ -1839,7 +1948,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -1859,7 +1968,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -1883,12 +1992,12 @@
     <row r="15" spans="1:6">
       <c r="B15" s="2"/>
       <c r="C15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="17" spans="3:3">
       <c r="C17" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Eingesetzte Anreize" sheetId="1" r:id="rId1"/>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId2"/>
     <sheet name="Firmengrösse" sheetId="3" r:id="rId3"/>
+    <sheet name="eingesetze Anreize" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>immateriell</t>
   </si>
@@ -94,6 +95,9 @@
   </si>
   <si>
     <t>materiell</t>
+  </si>
+  <si>
+    <t>beides</t>
   </si>
 </sst>
 </file>
@@ -174,7 +178,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:style val="6"/>
   <c:chart>
     <c:title>
@@ -186,7 +190,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -209,7 +213,7 @@
                 <a:pPr>
                   <a:defRPr lang="en-US"/>
                 </a:pPr>
-                <a:endParaRPr lang="de-DE"/>
+                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
             <c:showPercent val="1"/>
@@ -259,7 +263,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -267,7 +271,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -275,7 +279,7 @@
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -286,7 +290,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -495,12 +499,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="64938368"/>
-        <c:axId val="64939904"/>
+        <c:axId val="67640320"/>
+        <c:axId val="67646208"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="64938368"/>
+        <c:axId val="67640320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -514,17 +518,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64939904"/>
+        <c:crossAx val="67646208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="64939904"/>
+        <c:axId val="67646208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -540,10 +544,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="64938368"/>
+        <c:crossAx val="67640320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -558,7 +562,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -566,7 +570,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -574,7 +578,7 @@
 
 <file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="de-CH"/>
+  <c:lang val="en-US"/>
   <c:chart>
     <c:title>
       <c:layout/>
@@ -585,7 +589,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -1088,12 +1092,12 @@
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="65006976"/>
-        <c:axId val="65025152"/>
+        <c:axId val="67735936"/>
+        <c:axId val="67737472"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="65006976"/>
+        <c:axId val="67735936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1107,17 +1111,17 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65025152"/>
+        <c:crossAx val="67737472"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="65025152"/>
+        <c:axId val="67737472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1133,10 +1137,10 @@
             <a:pPr>
               <a:defRPr lang="en-US"/>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="65006976"/>
+        <c:crossAx val="67735936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1151,7 +1155,7 @@
           <a:pPr>
             <a:defRPr lang="en-US"/>
           </a:pPr>
-          <a:endParaRPr lang="de-DE"/>
+          <a:endParaRPr lang="en-US"/>
         </a:p>
       </c:txPr>
     </c:legend>
@@ -1159,7 +1163,77 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'eingesetze Anreize'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>immateriell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>beides</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'eingesetze Anreize'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showCatName val="1"/>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1253,6 +1327,41 @@
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -1557,7 +1666,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -2004,4 +2113,52 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B4">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="3"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Eingesetzte Anreize" sheetId="1" r:id="rId1"/>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId2"/>
     <sheet name="Firmengrösse" sheetId="3" r:id="rId3"/>
     <sheet name="eingesetze Anreize" sheetId="4" r:id="rId4"/>
+    <sheet name="Mitarbeitergespräch" sheetId="5" r:id="rId5"/>
+    <sheet name="Retention" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
   <si>
     <t>immateriell</t>
   </si>
@@ -98,6 +100,30 @@
   </si>
   <si>
     <t>beides</t>
+  </si>
+  <si>
+    <t>monatlich</t>
+  </si>
+  <si>
+    <t>quartalweise</t>
+  </si>
+  <si>
+    <t>halb jährlich</t>
+  </si>
+  <si>
+    <t>jährlich</t>
+  </si>
+  <si>
+    <t>&gt; 1 Jahr</t>
+  </si>
+  <si>
+    <t>sehr wirksam</t>
+  </si>
+  <si>
+    <t>mässig wirksam</t>
+  </si>
+  <si>
+    <t>nicht wirksam</t>
   </si>
 </sst>
 </file>
@@ -1239,6 +1265,917 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Mitarbeitergespräch!$A$2:$A$6</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>monatlich</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>quartalweise</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>halb jährlich</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jährlich</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&gt; 1 Jahr</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Mitarbeitergespräch!$B$2:$B$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showCatName val="1"/>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.0599518810148726E-2"/>
+          <c:y val="2.8252405949256341E-2"/>
+          <c:w val="0.70355314960629922"/>
+          <c:h val="0.5583176582093905"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$A$2:$A$16</c:f>
+              <c:strCache>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>monatlich</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>quartalweise</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>halb jährlich</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>jährlich</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>&gt; 1 Jahr</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>immateriell</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>beides</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$B$2:$B$16</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="15"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="76342400"/>
+        <c:axId val="76343936"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="76342400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76343936"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76343936"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76342400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:view3D>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:area3DChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>monatlich 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$3:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quartalweise 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$4:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>halb jährlich 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jährlich 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$6:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt; 1 Jahr 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="80390400"/>
+        <c:axId val="89015424"/>
+        <c:axId val="78752832"/>
+      </c:area3DChart>
+      <c:catAx>
+        <c:axId val="80390400"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89015424"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="89015424"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="80390400"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:serAx>
+        <c:axId val="78752832"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="89015424"/>
+        <c:crosses val="autoZero"/>
+      </c:serAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>monatlich 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$3:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quartalweise 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$4:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>halb jährlich 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jährlich 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$6:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt; 1 Jahr 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="75612928"/>
+        <c:axId val="75614464"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="75612928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75614464"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="75614464"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75612928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1348,16 +2285,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1371,6 +2308,136 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>895350</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2119,8 +3186,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2161,4 +3228,235 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="A2:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:G16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="15" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="C1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>4</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5">
+        <v>3</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s">
+        <v>34</v>
+      </c>
+      <c r="B11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Eingesetzte Anreize" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
   <si>
     <t>immateriell</t>
   </si>
@@ -125,6 +125,9 @@
   <si>
     <t>nicht wirksam</t>
   </si>
+  <si>
+    <t>Verwendung in %</t>
+  </si>
 </sst>
 </file>
 
@@ -186,13 +189,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -297,13 +301,794 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>monatlich 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$3:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quartalweise 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$4:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>halb jährlich 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jährlich 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$6:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt; 1 Jahr 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="67893504"/>
+        <c:axId val="67772416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="67893504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67772416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67772416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67893504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>negativ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'vermiedene Anreize'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positiv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'vermiedene Anreize'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="64744448"/>
+        <c:axId val="67531520"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="64744448"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67531520"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67531520"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="64744448"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr lang="en-US"/>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:view3D>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Verwendung in %</c:v>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'vermiedene Anreize'!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>35.294117647058826</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>52.941176470588239</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>41.176470588235297</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>35.294117647058826</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>88.235294117647072</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>23.529411764705884</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>17.647058823529413</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>76.470588235294116</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>47.058823529411768</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.411764705882355</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:shape val="box"/>
+        <c:axId val="77260672"/>
+        <c:axId val="77262208"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="77260672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77262208"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="77262208"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="77260672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -333,18 +1118,18 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'vermiedene Anreize'!$B$1</c:f>
+              <c:f>Firmengrösse!$B$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>negativ</c:v>
+                  <c:v>&gt;= 2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -354,16 +1139,16 @@
                   <c:v>Mentoring</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Auslandeinsatz</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter</c:v>
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Thank you notes</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Weiterbildung</c:v>
+                  <c:v>Persönliche Weiterbildung</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Ruheräume</c:v>
@@ -372,7 +1157,7 @@
                   <c:v>Kinderbetreuung</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>flexible Arbeitszeit</c:v>
+                  <c:v>Flexible Arbeitszeiten</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Reisen</c:v>
@@ -385,42 +1170,42 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'vermiedene Anreize'!$B$2:$B$12</c:f>
+              <c:f>Firmengrösse!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>13</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>14</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>9</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>12</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -431,18 +1216,18 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>'vermiedene Anreize'!$C$1</c:f>
+              <c:f>Firmengrösse!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>positiv</c:v>
+                  <c:v>&lt; 2000</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:cat>
             <c:strRef>
-              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
               <c:strCache>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
@@ -452,16 +1237,16 @@
                   <c:v>Mentoring</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>Auslandeinsatz</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter</c:v>
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>Thank you notes</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>Weiterbildung</c:v>
+                  <c:v>Persönliche Weiterbildung</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>Ruheräume</c:v>
@@ -470,7 +1255,7 @@
                   <c:v>Kinderbetreuung</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>flexible Arbeitszeit</c:v>
+                  <c:v>Flexible Arbeitszeiten</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>Reisen</c:v>
@@ -483,54 +1268,348 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'vermiedene Anreize'!$C$2:$C$12</c:f>
+              <c:f>Firmengrösse!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
                   <c:v>4</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>15</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>4</c:v>
                 </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 250</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
                 <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>3</c:v>
                 </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
                 <c:pt idx="8">
-                  <c:v>13</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>8</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>5</c:v>
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:shape val="box"/>
-        <c:axId val="67640320"/>
-        <c:axId val="67646208"/>
+        <c:axId val="67572096"/>
+        <c:axId val="67573632"/>
         <c:axId val="0"/>
       </c:bar3DChart>
       <c:catAx>
-        <c:axId val="67640320"/>
+        <c:axId val="67572096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,14 +1626,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67646208"/>
+        <c:crossAx val="67573632"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67646208"/>
+        <c:axId val="67573632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -573,7 +1652,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="67640320"/>
+        <c:crossAx val="67572096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -602,45 +1681,43 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
     <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Firmengrösse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>: &gt;= 2'000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:title>
     <c:view3D>
-      <c:rAngAx val="1"/>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
     </c:view3D>
     <c:plotArea>
       <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firmengrösse!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&gt;= 2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>Firmengrösse!$A$2:$A$12</c:f>
@@ -725,477 +1802,26 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firmengrösse!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Firmengrösse!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Firmengrösse!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firmengrösse!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 250</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Firmengrösse!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Firmengrösse!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firmengrösse!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Firmengrösse!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Firmengrösse!$E$2:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firmengrösse!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Firmengrösse!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Firmengrösse!$F$2:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="67735936"/>
-        <c:axId val="67737472"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="67735936"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="67737472"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67737472"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="67735936"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000022" l="0.70000000000000018" r="0.70000000000000018" t="0.75000000000000022" header="0.3000000000000001" footer="0.3000000000000001"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1213,6 +1839,10 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>'eingesetze Anreize'!$A$2:$A$4</c:f>
@@ -1259,13 +1889,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1283,6 +1913,10 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:dLbls>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
               <c:f>Mitarbeitergespräch!$A$2:$A$6</c:f>
@@ -1341,13 +1975,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1357,10 +1991,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.0599518810148726E-2"/>
-          <c:y val="2.8252405949256341E-2"/>
-          <c:w val="0.70355314960629922"/>
-          <c:h val="0.5583176582093905"/>
+          <c:x val="7.059951881014874E-2"/>
+          <c:y val="2.8252405949256338E-2"/>
+          <c:w val="0.70355314960629911"/>
+          <c:h val="0.55831765820939061"/>
         </c:manualLayout>
       </c:layout>
       <c:lineChart>
@@ -1453,24 +2087,24 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="76342400"/>
-        <c:axId val="76343936"/>
+        <c:axId val="67740416"/>
+        <c:axId val="67741952"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="76342400"/>
+        <c:axId val="67740416"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76343936"/>
+        <c:crossAx val="67741952"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="76343936"/>
+        <c:axId val="67741952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1478,7 +2112,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="76342400"/>
+        <c:crossAx val="67740416"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1491,13 +2125,13 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1788,25 +2422,25 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="80390400"/>
-        <c:axId val="89015424"/>
-        <c:axId val="78752832"/>
+        <c:axId val="67839104"/>
+        <c:axId val="67840640"/>
+        <c:axId val="67745088"/>
       </c:area3DChart>
       <c:catAx>
-        <c:axId val="80390400"/>
+        <c:axId val="67839104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89015424"/>
+        <c:crossAx val="67840640"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="89015424"/>
+        <c:axId val="67840640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1814,18 +2448,18 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="80390400"/>
+        <c:crossAx val="67839104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:serAx>
-        <c:axId val="78752832"/>
+        <c:axId val="67745088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="89015424"/>
+        <c:crossAx val="67840640"/>
         <c:crosses val="autoZero"/>
       </c:serAx>
     </c:plotArea>
@@ -1837,340 +2471,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$2:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>monatlich 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$3:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quartalweise 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$4:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>halb jährlich 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$5:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>jährlich 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$6:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&gt; 1 Jahr 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="75612928"/>
-        <c:axId val="75614464"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="75612928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75614464"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="75614464"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="75612928"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2215,16 +2516,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>76199</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95249</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>200024</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>219074</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2243,6 +2544,36 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2250,16 +2581,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>123824</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2273,6 +2604,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2766,149 +3127,198 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
         <v>12</v>
       </c>
-      <c r="C1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
         <v>11</v>
       </c>
-      <c r="C2">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" s="4">
+        <f>100/17*B2</f>
+        <v>35.294117647058826</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
         <v>8</v>
       </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" s="4">
+        <f>100/17*B3</f>
+        <v>52.941176470588239</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
         <v>13</v>
       </c>
-      <c r="C4">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" s="4">
+        <f>100/17*B4</f>
+        <v>23.529411764705884</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>10</v>
       </c>
-      <c r="C5">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" s="4">
+        <f>100/17*B5</f>
+        <v>41.176470588235297</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
         <v>11</v>
       </c>
-      <c r="C6">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" s="4">
+        <f>100/17*B6</f>
+        <v>35.294117647058826</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>15</v>
+      </c>
+      <c r="C7">
         <v>2</v>
       </c>
-      <c r="C7">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" s="4">
+        <f>100/17*B7</f>
+        <v>88.235294117647072</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
         <v>13</v>
       </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" s="4">
+        <f>100/17*B8</f>
+        <v>23.529411764705884</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>3</v>
+      </c>
+      <c r="C9">
         <v>14</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" s="4">
+        <f>100/17*B9</f>
+        <v>17.647058823529413</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>13</v>
+      </c>
+      <c r="C10">
         <v>4</v>
       </c>
-      <c r="C10">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" s="4">
+        <f>100/17*B10</f>
+        <v>76.470588235294116</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11" t="s">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" s="4">
+        <f>100/17*B11</f>
+        <v>47.058823529411768</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12" t="s">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>5</v>
+      </c>
+      <c r="C12">
         <v>12</v>
       </c>
-      <c r="C12">
-        <v>5</v>
+      <c r="E12" s="4">
+        <f>100/17*B12</f>
+        <v>29.411764705882355</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2916,8 +3326,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3293,7 +3703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>

--- a/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
@@ -4,22 +4,21 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Eingesetzte Anreize" sheetId="1" r:id="rId1"/>
-    <sheet name="vermiedene Anreize" sheetId="2" r:id="rId2"/>
-    <sheet name="Firmengrösse" sheetId="3" r:id="rId3"/>
-    <sheet name="eingesetze Anreize" sheetId="4" r:id="rId4"/>
-    <sheet name="Mitarbeitergespräch" sheetId="5" r:id="rId5"/>
-    <sheet name="Retention" sheetId="6" r:id="rId6"/>
+    <sheet name="vermiedene Anreize" sheetId="2" r:id="rId1"/>
+    <sheet name="Firmengrösse" sheetId="3" r:id="rId2"/>
+    <sheet name="eingesetze Anreize" sheetId="4" r:id="rId3"/>
+    <sheet name="Mitarbeitergespräch" sheetId="5" r:id="rId4"/>
+    <sheet name="Retention" sheetId="6" r:id="rId5"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
   <si>
     <t>immateriell</t>
   </si>
@@ -209,731 +208,6 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
-  <c:style val="6"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:txPr>
-              <a:bodyPr/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr lang="en-US"/>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showPercent val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'Eingesetzte Anreize'!$A$2:$A$3</c:f>
-              <c:strCache>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>immateriell</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'Eingesetzte Anreize'!$B$2:$B$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="2"/>
-                <c:pt idx="0">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$2:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>monatlich 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$3:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quartalweise 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$4:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>halb jährlich 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$5:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>jährlich 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$6:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&gt; 1 Jahr 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="67893504"/>
-        <c:axId val="67772416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="67893504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67772416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67772416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67893504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'vermiedene Anreize'!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>negativ</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsatz</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>flexible Arbeitszeit</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'vermiedene Anreize'!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>12</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>'vermiedene Anreize'!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>positiv</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:dLbls>
-            <c:showVal val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsatz</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>flexible Arbeitszeit</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'vermiedene Anreize'!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showVal val="1"/>
-        </c:dLbls>
-        <c:gapWidth val="75"/>
-        <c:axId val="64744448"/>
-        <c:axId val="67531520"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="64744448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="67531520"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67531520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="64744448"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000044" l="0.7000000000000004" r="0.7000000000000004" t="0.75000000000000044" header="0.30000000000000021" footer="0.30000000000000021"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
   <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:view3D>
@@ -1088,814 +362,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:view3D>
-      <c:rAngAx val="1"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:bar3DChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firmengrösse!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&gt;= 2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Firmengrösse!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Firmengrösse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firmengrösse!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 2000</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Firmengrösse!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Firmengrösse!$C$2:$C$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firmengrösse!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 250</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Firmengrösse!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Firmengrösse!$D$2:$D$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firmengrösse!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 50</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Firmengrösse!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Firmengrösse!$E$2:$E$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Firmengrösse!$F$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&lt; 10</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Firmengrösse!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Firmengrösse!$F$2:$F$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:shape val="box"/>
-        <c:axId val="67572096"/>
-        <c:axId val="67573632"/>
-        <c:axId val="0"/>
-      </c:bar3DChart>
-      <c:catAx>
-        <c:axId val="67572096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="67573632"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67573632"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:txPr>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr lang="en-US"/>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="67572096"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:txPr>
-        <a:bodyPr/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr lang="en-US"/>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>Firmengrösse</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t>: &gt;= 2'000</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>Firmengrösse!$A$2:$A$12</c:f>
-              <c:strCache>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>Coaching</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Mentoring</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Auslandeinsätze</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Newsletter </c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Thank you notes</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Persönliche Weiterbildung</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Ruheräume</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>Kinderbetreuung</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>Flexible Arbeitszeiten</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>Reisen</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>Sabbatical</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Firmengrösse!$B$2:$B$12</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="t"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
-    <c:view3D>
-      <c:rotX val="30"/>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:pie3DChart>
-        <c:varyColors val="1"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:dLbls>
-            <c:showCatName val="1"/>
-            <c:showPercent val="1"/>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>'eingesetze Anreize'!$A$2:$A$4</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>immateriell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>beides</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>'eingesetze Anreize'!$B$2:$B$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:dLbls>
-          <c:showCatName val="1"/>
-          <c:showPercent val="1"/>
-        </c:dLbls>
-      </c:pie3DChart>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -1981,7 +448,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2131,7 +598,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
@@ -2477,73 +944,1948 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$2:$B$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>monatlich 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$2:$G$2</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$3:$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>quartalweise 2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$4:$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>halb jährlich 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$5:$B$5</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>jährlich 6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$5:$G$5</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Retention!$A$6:$B$6</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt; 1 Jahr 1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:strRef>
+              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>beides</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>sehr wirksam</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>mässig wirksam</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>nicht wirksam</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Retention!$C$6:$G$6</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="67893504"/>
+        <c:axId val="67772416"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="67893504"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67772416"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67772416"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67893504"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>positiv</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'vermiedene Anreize'!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>negativ</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'vermiedene Anreize'!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsatz</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>flexible Arbeitszeit</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'vermiedene Anreize'!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:axId val="75776000"/>
+        <c:axId val="76378112"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="75776000"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="76378112"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="76378112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="75776000"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt;= 2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 2000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 250</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Firmengrösse!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt; 10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="67572096"/>
+        <c:axId val="67573632"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="67572096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-US"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="67573632"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67573632"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67572096"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000033" l="0.70000000000000029" r="0.70000000000000029" t="0.75000000000000033" header="0.30000000000000016" footer="0.30000000000000016"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Firmengrösse</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t>: &gt;= 2'000</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Firmengrösse: &gt; 2'000</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Firmengrösse: &lt; 250</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Firmengrösse: &lt; 50</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.8279053875661989E-2"/>
+          <c:y val="0.43253818463531757"/>
+          <c:w val="0.83160757272204877"/>
+          <c:h val="0.48032377632185291"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$E$2:$E$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Firmengrösse: &lt; 10</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Firmengrösse!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Firmengrösse!$F$2:$F$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:dLbls>
+            <c:showCatName val="1"/>
+            <c:showPercent val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'eingesetze Anreize'!$A$2:$A$4</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>materiell</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>immateriell</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>beides</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'eingesetze Anreize'!$B$2:$B$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>14</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showCatName val="1"/>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>295275</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95249</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>161924</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>219074</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
@@ -2568,6 +2910,36 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>171451</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
@@ -2577,20 +2949,20 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
+      <xdr:rowOff>171451</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2639,10 +3011,130 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>133349</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>161924</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Chart 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>88</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Chart 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2677,7 +3169,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -2712,7 +3204,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -3092,45 +3584,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="11.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>25</v>
-      </c>
-      <c r="B3">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+      <selection sqref="A1:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3322,12 +3779,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3592,7 +4049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B4"/>
   <sheetViews>
@@ -3640,7 +4097,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:B6"/>
   <sheetViews>
@@ -3699,7 +4156,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G16"/>
   <sheetViews>

--- a/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="1"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId1"/>
@@ -12,13 +12,14 @@
     <sheet name="eingesetze Anreize" sheetId="4" r:id="rId3"/>
     <sheet name="Mitarbeitergespräch" sheetId="5" r:id="rId4"/>
     <sheet name="Retention" sheetId="6" r:id="rId5"/>
+    <sheet name="Länder" sheetId="7" r:id="rId6"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
   <si>
     <t>immateriell</t>
   </si>
@@ -127,6 +128,12 @@
   <si>
     <t>Verwendung in %</t>
   </si>
+  <si>
+    <t xml:space="preserve">Schweiz </t>
+  </si>
+  <si>
+    <t>Deutschland</t>
+  </si>
 </sst>
 </file>
 
@@ -161,7 +168,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -184,11 +191,52 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -196,6 +244,9 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -366,9 +417,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -381,7 +430,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:showCatName val="1"/>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -433,11 +481,14 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showCatName val="1"/>
           <c:showPercent val="1"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
@@ -452,214 +503,108 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:autoTitleDeleted val="1"/>
     <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="7.059951881014874E-2"/>
-          <c:y val="2.8252405949256338E-2"/>
-          <c:w val="0.70355314960629911"/>
-          <c:h val="0.55831765820939061"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Länder!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Schweiz </c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Retention!$A$2:$A$16</c:f>
+              <c:f>Länder!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>monatlich</c:v>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>quartalweise</c:v>
+                  <c:v>Mentoring</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>halb jährlich</c:v>
+                  <c:v>Auslandeinsätze</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>jährlich</c:v>
+                  <c:v>Newsletter </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>&gt; 1 Jahr</c:v>
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>sehr wirksam</c:v>
+                  <c:v>Kinderbetreuung</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>mässig wirksam</c:v>
+                  <c:v>Flexible Arbeitszeiten</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>immateriell</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>beides</c:v>
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retention!$B$2:$B$16</c:f>
+              <c:f>Länder!$B$2:$B$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="15"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6</c:v>
+                  <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1</c:v>
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>7</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="12">
                   <c:v>3</c:v>
                 </c:pt>
-                <c:pt idx="13">
+                <c:pt idx="10">
                   <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="67740416"/>
-        <c:axId val="67741952"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="67740416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67741952"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67741952"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67740416"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:view3D>
-      <c:perspective val="30"/>
-    </c:view3D>
-    <c:plotArea>
-      <c:layout/>
-      <c:area3DChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$2:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>monatlich 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -670,608 +615,146 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Retention!$A$3:$B$3</c:f>
+              <c:f>Länder!$C$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>quartalweise 2</c:v>
+                  <c:v>Deutschland</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
+              <c:f>Länder!$A$2:$A$12</c:f>
               <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>materiell</c:v>
+                  <c:v>Mentoring</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
+                  <c:v>Auslandeinsätze</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
+                  <c:v>Newsletter </c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Retention!$C$3:$G$3</c:f>
+              <c:f>Länder!$C$2:$C$12</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
                   <c:v>2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$4:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>halb jährlich 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$5:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>jährlich 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$6:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&gt; 1 Jahr 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:axId val="67839104"/>
-        <c:axId val="67840640"/>
-        <c:axId val="67745088"/>
-      </c:area3DChart>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="38875904"/>
+        <c:axId val="38893056"/>
+      </c:barChart>
       <c:catAx>
-        <c:axId val="67839104"/>
+        <c:axId val="38875904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67840640"/>
+        <c:crossAx val="38893056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="67840640"/>
+        <c:axId val="38893056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="1"/>
         <c:axPos val="l"/>
-        <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67839104"/>
+        <c:crossAx val="38875904"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
-      <c:serAx>
-        <c:axId val="67745088"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67840640"/>
-        <c:crosses val="autoZero"/>
-      </c:serAx>
     </c:plotArea>
     <c:legend>
-      <c:legendPos val="r"/>
+      <c:legendPos val="t"/>
       <c:layout/>
     </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:lang val="en-US"/>
-  <c:chart>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$2:$B$2</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>monatlich 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$2:$G$2</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$3:$B$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>quartalweise 2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$3:$G$3</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$4:$B$4</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>halb jährlich 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$4:$G$4</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$5:$B$5</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>jährlich 6</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$5:$G$5</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Retention!$A$6:$B$6</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>&gt; 1 Jahr 1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:cat>
-            <c:strRef>
-              <c:f>Retention!$C$1:$G$1</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>beides</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>materiell</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>sehr wirksam</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>mässig wirksam</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>nicht wirksam</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Retention!$C$6:$G$6</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-        </c:ser>
-        <c:marker val="1"/>
-        <c:axId val="67893504"/>
-        <c:axId val="67772416"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="67893504"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="b"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67772416"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="67772416"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:axPos val="l"/>
-        <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="67893504"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-  </c:chart>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000011" l="0.70000000000000007" r="0.70000000000000007" t="0.75000000000000011" header="0.30000000000000004" footer="0.30000000000000004"/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2814,9 +2297,7 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
-    <c:title>
-      <c:layout/>
-    </c:title>
+    <c:autoTitleDeleted val="1"/>
     <c:view3D>
       <c:rotX val="30"/>
       <c:perspective val="30"/>
@@ -2829,7 +2310,6 @@
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:dLbls>
-            <c:showCatName val="1"/>
             <c:showPercent val="1"/>
           </c:dLbls>
           <c:cat>
@@ -2869,11 +2349,14 @@
           </c:val>
         </c:ser>
         <c:dLbls>
-          <c:showCatName val="1"/>
           <c:showPercent val="1"/>
         </c:dLbls>
       </c:pie3DChart>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
     <c:plotVisOnly val="1"/>
   </c:chart>
   <c:printSettings>
@@ -3208,16 +2691,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>561975</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>257175</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>400050</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3231,66 +2714,6 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>895350</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>314325</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="9" name="Chart 8"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3586,8 +3009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:C12"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3783,8 +3206,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4054,7 +3477,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B4"/>
+      <selection activeCell="M25" sqref="L23:M25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4102,7 +3525,7 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="A2:B6"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4158,10 +3581,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="I22" sqref="I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4173,153 +3596,265 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
+      <c r="A1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2" s="6">
+        <v>2</v>
+      </c>
+      <c r="C2" s="6">
+        <v>2</v>
+      </c>
+      <c r="D2" s="6"/>
+      <c r="E2" s="6">
+        <v>1</v>
+      </c>
+      <c r="F2" s="6">
+        <v>1</v>
+      </c>
+      <c r="G2" s="7"/>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3" s="6">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6">
+        <v>2</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6">
+        <v>2</v>
+      </c>
+      <c r="F3" s="6"/>
+      <c r="G3" s="7"/>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4" s="6">
+        <v>6</v>
+      </c>
+      <c r="C4" s="6">
+        <v>6</v>
+      </c>
+      <c r="D4" s="6"/>
+      <c r="E4" s="6">
+        <v>1</v>
+      </c>
+      <c r="F4" s="6">
+        <v>4</v>
+      </c>
+      <c r="G4" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="6">
+        <v>6</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="6">
+        <v>3</v>
+      </c>
+      <c r="F5" s="6">
+        <v>3</v>
+      </c>
+      <c r="G5" s="7"/>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="6">
+        <v>1</v>
+      </c>
+      <c r="D6" s="6"/>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="35.42578125" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="B1" t="s">
+        <v>36</v>
+      </c>
       <c r="C1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E1" t="s">
-        <v>32</v>
-      </c>
-      <c r="F1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
-        <v>27</v>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1" t="s">
+        <v>1</v>
       </c>
       <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="1" t="s">
         <v>2</v>
-      </c>
-      <c r="C2">
-        <v>2</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="s">
-        <v>28</v>
       </c>
       <c r="B3">
         <v>2</v>
       </c>
       <c r="C3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
         <v>2</v>
       </c>
-      <c r="E3">
+      <c r="C4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4">
+      <c r="C6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>4</v>
+      </c>
+      <c r="C10">
         <v>6</v>
       </c>
-      <c r="C4">
-        <v>6</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>4</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="B5">
-        <v>6</v>
-      </c>
-      <c r="C5">
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="D5">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="E5">
-        <v>3</v>
-      </c>
-      <c r="F5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
-        <v>32</v>
-      </c>
-      <c r="B9">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
-        <v>34</v>
-      </c>
-      <c r="B11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
         <v>0</v>
       </c>
-      <c r="B15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
+      <c r="C12">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" activeTab="5"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId1"/>
@@ -13,13 +13,14 @@
     <sheet name="Mitarbeitergespräch" sheetId="5" r:id="rId4"/>
     <sheet name="Retention" sheetId="6" r:id="rId5"/>
     <sheet name="Länder" sheetId="7" r:id="rId6"/>
+    <sheet name="Wirtschaftsektor" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="41">
   <si>
     <t>immateriell</t>
   </si>
@@ -133,6 +134,15 @@
   </si>
   <si>
     <t>Deutschland</t>
+  </si>
+  <si>
+    <t>landwirtschaftlich</t>
+  </si>
+  <si>
+    <t>industriell</t>
+  </si>
+  <si>
+    <t>Dienstleistung</t>
   </si>
 </sst>
 </file>
@@ -742,6 +752,368 @@
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="38875904"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Wirtschaftsektor!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>landwirtschaftlich</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftsektor!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftsektor!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Wirtschaftsektor!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>industriell</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftsektor!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftsektor!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Wirtschaftsektor!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Dienstleistung</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dLbls>
+            <c:showVal val="1"/>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftsektor!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftsektor!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showVal val="1"/>
+        </c:dLbls>
+        <c:overlap val="-25"/>
+        <c:axId val="67792256"/>
+        <c:axId val="67798144"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="67792256"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67798144"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="67798144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="67792256"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2722,6 +3094,41 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -3718,8 +4125,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O11" sqref="O11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A12" sqref="A1:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3861,4 +4268,191 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="B1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C1" t="s">
+        <v>39</v>
+      </c>
+      <c r="D1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>2</v>
+      </c>
+      <c r="D7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
@@ -774,6 +774,278 @@
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <c:lang val="en-US"/>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Schweiz</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Länder!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Länder!$B$2:$B$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Deutschland</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Länder!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Länder!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout/>
@@ -1117,6 +1389,278 @@
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Industrie</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftsektor!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftsektor!$C$2:$C$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="t"/>
+      <c:layout/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Dienstleistung</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:view3D>
+      <c:rotX val="30"/>
+      <c:perspective val="30"/>
+    </c:view3D>
+    <c:plotArea>
+      <c:layout/>
+      <c:pie3DChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Wirtschaftsektor!$A$2:$A$12</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>Coaching</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Mentoring</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Auslandeinsätze</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Newsletter </c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Thank you notes</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Persönliche Weiterbildung</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ruheräume</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Kinderbetreuung</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Flexible Arbeitszeiten</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Reisen</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Sabbatical</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Wirtschaftsektor!$D$2:$D$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showPercent val="1"/>
+        </c:dLbls>
+      </c:pie3DChart>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="t"/>
@@ -3063,16 +3607,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>400050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3086,6 +3630,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>142874</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>561975</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>85725</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3121,6 +3725,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>200025</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>171450</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3613,8 +4277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A12"/>
+    <sheetView topLeftCell="A97" workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3932,7 +4596,7 @@
   <dimension ref="A2:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4125,8 +4789,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A1:A12"/>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C21" sqref="C20:C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4274,8 +4938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
+++ b/trunk/study/auswertung/auswertung arbeitnehmer_teilnehmer 17.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="6"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="18975" windowHeight="8385" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="vermiedene Anreize" sheetId="2" r:id="rId1"/>
@@ -4277,8 +4277,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView topLeftCell="A97" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4938,8 +4938,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B9" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
